--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_ETH-USDT_1d/equity_curve.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Range/Binance_ETH-USDT_1d/equity_curve.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -408,7 +408,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -424,7 +424,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1674.024279386461</v>
+        <v>1046.263851431221</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1745.241025672019</v>
+        <v>1090.773044859082</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -576,71 +576,71 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1712.444019497097</v>
+        <v>1070.275502246827</v>
       </c>
       <c r="B24">
-        <v>0.01879225029235909</v>
+        <v>0.01879175756025642</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1716.611755490959</v>
+        <v>1072.880262744636</v>
       </c>
       <c r="B25">
-        <v>0.01640419275041738</v>
+        <v>0.01640376263309451</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1648.555823684395</v>
+        <v>1030.34652186653</v>
       </c>
       <c r="B26">
-        <v>0.05539934058700846</v>
+        <v>0.05539788801836221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1547.912647993028</v>
+        <v>967.4463360579909</v>
       </c>
       <c r="B27">
-        <v>0.113066547701059</v>
+        <v>0.1130635831003904</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1467.045481712282</v>
+        <v>916.9058026345672</v>
       </c>
       <c r="B28">
-        <v>0.1594023632653349</v>
+        <v>0.1593981837413085</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1573.926610693992</v>
+        <v>983.7045977460446</v>
       </c>
       <c r="B29">
-        <v>0.09816089150898877</v>
+        <v>0.09815831773407035</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1683.604882822097</v>
+        <v>1052.251557325035</v>
       </c>
       <c r="B30">
-        <v>0.03531669376508539</v>
+        <v>0.03531576776269052</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1736.513851524055</v>
+        <v>1085.318717014998</v>
       </c>
       <c r="B31">
-        <v>0.005000555235402548</v>
+        <v>0.005000424121030522</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1910.779318690956</v>
+        <v>1194.231518995971</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -651,15 +651,15 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1886.723449975908</v>
+        <v>1179.197031048149</v>
       </c>
       <c r="B33">
-        <v>0.01258955886728363</v>
+        <v>0.01258925736649585</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>2225.730155140817</v>
+        <v>1391.070162025303</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -670,47 +670,47 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2171.576263398588</v>
+        <v>1357.224947688192</v>
       </c>
       <c r="B35">
-        <v>0.02433084334915847</v>
+        <v>0.02433034311355953</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2142.569254369199</v>
+        <v>1339.096085545629</v>
       </c>
       <c r="B36">
-        <v>0.03736342457307296</v>
+        <v>0.03736265639110736</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2217.911950916708</v>
+        <v>1386.183924135775</v>
       </c>
       <c r="B37">
-        <v>0.003512646942421038</v>
+        <v>0.003512574723344097</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2161.716289520919</v>
+        <v>1351.062640261859</v>
       </c>
       <c r="B38">
-        <v>0.02876083853743172</v>
+        <v>0.02876024722232251</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>2180.457554996669</v>
+        <v>1362.775596183747</v>
       </c>
       <c r="B39">
-        <v>0.02034056106917581</v>
+        <v>0.02034014287270791</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2249.030754566848</v>
+        <v>1405.632620167941</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -721,151 +721,151 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B41">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B42">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B43">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B44">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B45">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B46">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B47">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B48">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B49">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B50">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B51">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B52">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B53">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B54">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B55">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>2036.236282152511</v>
+        <v>1272.639878613978</v>
       </c>
       <c r="B56">
-        <v>0.09461607938541516</v>
+        <v>0.09461415425751374</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2174.935728953488</v>
+        <v>1359.33076054269</v>
       </c>
       <c r="B57">
-        <v>0.03294531453734184</v>
+        <v>0.03294022845010436</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>2199.697681234486</v>
+        <v>1374.807646219074</v>
       </c>
       <c r="B58">
-        <v>0.02193525954777942</v>
+        <v>0.02192960913583797</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2272.337121353753</v>
+        <v>1420.209248546898</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2295.843261585839</v>
+        <v>1434.901217941582</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -884,215 +884,215 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2250.970435754664</v>
+        <v>1406.854495797693</v>
       </c>
       <c r="B61">
-        <v>0.01954524796269375</v>
+        <v>0.01954609961522125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>2217.250634745963</v>
+        <v>1385.778713915884</v>
       </c>
       <c r="B62">
-        <v>0.03423257508685018</v>
+        <v>0.0342340667158717</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>2196.423421607621</v>
+        <v>1372.761145953476</v>
       </c>
       <c r="B63">
-        <v>0.04330428023624944</v>
+        <v>0.0433061671501318</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B64">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B65">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B66">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B67">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B68">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B69">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B70">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B71">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B72">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B73">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B74">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B75">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B76">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B77">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B78">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B79">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B80">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B81">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B82">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B83">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>2157.614186740615</v>
+        <v>1348.504331126904</v>
       </c>
       <c r="B84">
-        <v>0.06020841106972774</v>
+        <v>0.06021103455373578</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2228.15609899471</v>
+        <v>1392.593026285713</v>
       </c>
       <c r="B85">
-        <v>0.02948248415894683</v>
+        <v>0.0294850900723056</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>2233.611949357487</v>
+        <v>1396.002932762449</v>
       </c>
       <c r="B86">
-        <v>0.02710608048450391</v>
+        <v>0.02710868503891406</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2317.79770222614</v>
+        <v>1448.619028305357</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>2374.582026872136</v>
+        <v>1484.109231209105</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1111,359 +1111,359 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2366.443745765187</v>
+        <v>1479.022805517262</v>
       </c>
       <c r="B89">
-        <v>0.003427247833450831</v>
+        <v>0.003427258307462377</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2315.90797987888</v>
+        <v>1447.43795183832</v>
       </c>
       <c r="B90">
-        <v>0.02470921043335894</v>
+        <v>0.02470928594717292</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B91">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B92">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B93">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B94">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B95">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B96">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B97">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B98">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B99">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B100">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B101">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B102">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B103">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B104">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>2233.296610144806</v>
+        <v>1395.805845754523</v>
       </c>
       <c r="B105">
-        <v>0.05949906767947488</v>
+        <v>0.05949924951456587</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>2242.673597483647</v>
+        <v>1401.66616801693</v>
       </c>
       <c r="B106">
-        <v>0.05555016752242592</v>
+        <v>0.05555053594337422</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>2240.884606062186</v>
+        <v>1400.548104626675</v>
       </c>
       <c r="B107">
-        <v>0.05630355965679568</v>
+        <v>0.05630389247990353</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>2232.559557764542</v>
+        <v>1395.34521119072</v>
       </c>
       <c r="B108">
-        <v>0.05980946014935928</v>
+        <v>0.05980962731838058</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>2212.367201282394</v>
+        <v>1382.725623262663</v>
       </c>
       <c r="B109">
-        <v>0.0683130015110136</v>
+        <v>0.06831276688700616</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>2170.539174257529</v>
+        <v>1356.584421498318</v>
       </c>
       <c r="B110">
-        <v>0.08592790238683723</v>
+        <v>0.08592683545731483</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>2225.844530655754</v>
+        <v>1391.148530376692</v>
       </c>
       <c r="B111">
-        <v>0.06263733765908408</v>
+        <v>0.06263737121066049</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>2271.644381670964</v>
+        <v>1419.771997255821</v>
       </c>
       <c r="B112">
-        <v>0.04334979547401208</v>
+        <v>0.04335074036354292</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>2260.564044876707</v>
+        <v>1412.847135139246</v>
       </c>
       <c r="B113">
-        <v>0.04801602164302443</v>
+        <v>0.048016746052985</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>2260.397160022271</v>
+        <v>1412.742837352295</v>
       </c>
       <c r="B114">
-        <v>0.04808630131858305</v>
+        <v>0.04808702240782325</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>2235.398199825299</v>
+        <v>1397.119273228188</v>
       </c>
       <c r="B115">
-        <v>0.05861403205774862</v>
+        <v>0.05861425571084555</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>2216.768233923924</v>
+        <v>1385.476130289574</v>
       </c>
       <c r="B116">
-        <v>0.06645960895951375</v>
+        <v>0.06645946190845686</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>2225.892338989985</v>
+        <v>1391.178409082432</v>
       </c>
       <c r="B117">
-        <v>0.06261720429089956</v>
+        <v>0.06261723879377923</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>2186.41402938844</v>
+        <v>1366.505706829567</v>
       </c>
       <c r="B118">
-        <v>0.07924257631628595</v>
+        <v>0.07924182526897017</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>2174.582444159997</v>
+        <v>1359.111338061829</v>
       </c>
       <c r="B119">
-        <v>0.08422517329316448</v>
+        <v>0.08422418681773169</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>2191.673657058489</v>
+        <v>1369.792808753986</v>
       </c>
       <c r="B120">
-        <v>0.07702760643504847</v>
+        <v>0.07702696004524168</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>2182.89540707947</v>
+        <v>1364.306678516407</v>
       </c>
       <c r="B121">
-        <v>0.08072436227657309</v>
+        <v>0.0807235412147489</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>2193.856489627373</v>
+        <v>1371.157010478516</v>
       </c>
       <c r="B122">
-        <v>0.07610835726016973</v>
+        <v>0.07610775430496219</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>2168.392420097005</v>
+        <v>1355.242767644663</v>
       </c>
       <c r="B123">
-        <v>0.08683195797903387</v>
+        <v>0.08683084833281041</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>2205.401758028877</v>
+        <v>1378.372440231581</v>
       </c>
       <c r="B124">
-        <v>0.07124633595669372</v>
+        <v>0.07124596273239259</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>2235.755962564361</v>
+        <v>1397.342863691588</v>
       </c>
       <c r="B125">
-        <v>0.05846336859992163</v>
+        <v>0.05846359937187939</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>2211.07904215039</v>
+        <v>1381.920564306517</v>
       </c>
       <c r="B126">
-        <v>0.06885547977347251</v>
+        <v>0.06885521951732265</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>2180.522052078259</v>
+        <v>1362.82340626194</v>
       </c>
       <c r="B127">
-        <v>0.08172384554325041</v>
+        <v>0.0817229772557595</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>2177.516347436917</v>
+        <v>1360.944935364266</v>
       </c>
       <c r="B128">
-        <v>0.08298962815565447</v>
+        <v>0.08298870005983117</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>2198.007106124175</v>
+        <v>1373.751015288372</v>
       </c>
       <c r="B129">
-        <v>0.07436042164462542</v>
+        <v>0.07435990127951941</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>2214.537770746958</v>
+        <v>1384.08216093256</v>
       </c>
       <c r="B130">
-        <v>0.0673989166573421</v>
+        <v>0.06739872522391921</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>2274.876509426844</v>
+        <v>1421.791975481053</v>
       </c>
       <c r="B131">
-        <v>0.04198866003236223</v>
+        <v>0.04198966923565461</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>2250.318843259227</v>
+        <v>1406.444206250448</v>
       </c>
       <c r="B132">
-        <v>0.052330550053304</v>
+        <v>0.05233107060144249</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>2388.827052025807</v>
+        <v>1493.007481855888</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>2515.682645796549</v>
+        <v>1572.288239461918</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -1482,23 +1482,23 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>2453.602724029434</v>
+        <v>1533.490240228911</v>
       </c>
       <c r="B135">
-        <v>0.02467716739662884</v>
+        <v>0.02467613651189382</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>2501.740029363644</v>
+        <v>1563.574542564888</v>
       </c>
       <c r="B136">
-        <v>0.005542279530449501</v>
+        <v>0.005542048002605382</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>2579.432482464922</v>
+        <v>1612.129883003969</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1509,47 +1509,47 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>2544.712968243969</v>
+        <v>1590.431278241415</v>
       </c>
       <c r="B138">
-        <v>0.01346013685451264</v>
+        <v>0.01345958845581474</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>2523.542584760797</v>
+        <v>1577.200454188128</v>
       </c>
       <c r="B139">
-        <v>0.02166751720933424</v>
+        <v>0.02166663442200811</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>2530.448312028062</v>
+        <v>1581.516316605349</v>
       </c>
       <c r="B140">
-        <v>0.01899028982919904</v>
+        <v>0.01898951611862476</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>2458.719282149088</v>
+        <v>1536.687928182621</v>
       </c>
       <c r="B141">
-        <v>0.04679835628047868</v>
+        <v>0.04679644960167417</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>2473.830803467643</v>
+        <v>1546.132153881331</v>
       </c>
       <c r="B142">
-        <v>0.04093988879924648</v>
+        <v>0.04093822080864951</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>2609.524363203657</v>
+        <v>1630.936362338801</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1560,543 +1560,543 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>2588.294263734233</v>
+        <v>1617.668217671652</v>
       </c>
       <c r="B144">
-        <v>0.008135620333262428</v>
+        <v>0.00813529269046509</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B145">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B146">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B147">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B148">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B149">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B150">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B151">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B152">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B153">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B154">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B155">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B156">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B157">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B158">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B159">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B160">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B161">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B162">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B163">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B164">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B165">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B166">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B167">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B168">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B169">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B170">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B171">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B172">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B173">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B174">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B175">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B176">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B177">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B178">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B179">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B180">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B181">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>2531.215844213189</v>
+        <v>1581.996000088868</v>
       </c>
       <c r="B182">
-        <v>0.03000873266204329</v>
+        <v>0.03000752413156749</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183">
-        <v>2513.741259544315</v>
+        <v>1571.073838271318</v>
       </c>
       <c r="B183">
-        <v>0.03670519616906387</v>
+        <v>0.03670438985224322</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>2464.68993489367</v>
+        <v>1540.415226616082</v>
       </c>
       <c r="B184">
-        <v>0.05550223264908583</v>
+        <v>0.05550255534980453</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185">
-        <v>2345.107728845599</v>
+        <v>1465.672608710943</v>
       </c>
       <c r="B185">
-        <v>0.1013275208641622</v>
+        <v>0.1013305959963183</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>2369.489529921832</v>
+        <v>1480.911996759591</v>
       </c>
       <c r="B186">
-        <v>0.09198413192323651</v>
+        <v>0.09198664585788663</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>2364.572423911812</v>
+        <v>1477.838651754079</v>
       </c>
       <c r="B187">
-        <v>0.09386842397252904</v>
+        <v>0.09387105108452898</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188">
-        <v>2346.294986247244</v>
+        <v>1466.41468171042</v>
       </c>
       <c r="B188">
-        <v>0.1008725500586061</v>
+        <v>0.1008755978635811</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189">
-        <v>2405.204559362652</v>
+        <v>1503.235006906209</v>
       </c>
       <c r="B189">
-        <v>0.07829771843561772</v>
+        <v>0.07829941031510546</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190">
-        <v>2401.414932384314</v>
+        <v>1500.866371549783</v>
       </c>
       <c r="B190">
-        <v>0.0797499474440051</v>
+        <v>0.07975172654958418</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191">
-        <v>2406.128041356029</v>
+        <v>1503.812212027726</v>
       </c>
       <c r="B191">
-        <v>0.07794382942565137</v>
+        <v>0.0779455000492939</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192">
-        <v>2408.862477346482</v>
+        <v>1505.52132002276</v>
       </c>
       <c r="B192">
-        <v>0.076895961841424</v>
+        <v>0.07689756952637483</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>2409.366259782734</v>
+        <v>1505.836199797807</v>
       </c>
       <c r="B193">
-        <v>0.07670290656922363</v>
+        <v>0.07670450265858142</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>2407.087622693899</v>
+        <v>1504.411980368314</v>
       </c>
       <c r="B194">
-        <v>0.07757610672821269</v>
+        <v>0.07757775526510891</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>2418.600811652067</v>
+        <v>1511.608083464322</v>
       </c>
       <c r="B195">
-        <v>0.07316411919496224</v>
+        <v>0.07316550273203715</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>2398.740453473451</v>
+        <v>1499.194738604245</v>
       </c>
       <c r="B196">
-        <v>0.08077483877998015</v>
+        <v>0.08077667944421485</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>2373.075427926304</v>
+        <v>1483.153295137105</v>
       </c>
       <c r="B197">
-        <v>0.09060997422038597</v>
+        <v>0.09061240561818795</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>2385.476178242984</v>
+        <v>1490.904151834665</v>
       </c>
       <c r="B198">
-        <v>0.08585786288104014</v>
+        <v>0.08586000884996303</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>2384.876518092277</v>
+        <v>1490.529345490155</v>
       </c>
       <c r="B199">
-        <v>0.08608765960536369</v>
+        <v>0.08608981937670346</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>2380.247223935249</v>
+        <v>1487.635891892133</v>
       </c>
       <c r="B200">
-        <v>0.08786165881468511</v>
+        <v>0.08786392513879038</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>2385.296217649402</v>
+        <v>1490.791670836625</v>
       </c>
       <c r="B201">
-        <v>0.0859268258675977</v>
+        <v>0.08592897597868532</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202">
-        <v>2401.678707792582</v>
+        <v>1501.031239427743</v>
       </c>
       <c r="B202">
-        <v>0.07964886564841522</v>
+        <v>0.07965063868265854</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>2402.338414377692</v>
+        <v>1501.4435766713</v>
       </c>
       <c r="B203">
-        <v>0.07939605843403874</v>
+        <v>0.07939781628377252</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>2453.128673046055</v>
+        <v>1533.189076461015</v>
       </c>
       <c r="B204">
-        <v>0.05993264227109896</v>
+        <v>0.05993323107813575</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205">
-        <v>2446.340566604557</v>
+        <v>1528.946297682939</v>
       </c>
       <c r="B205">
-        <v>0.06253392338470554</v>
+        <v>0.0625346684340311</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>2467.808060451569</v>
+        <v>1542.364152588067</v>
       </c>
       <c r="B206">
-        <v>0.05430733077276406</v>
+        <v>0.05430758170338335</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>2461.727644129815</v>
+        <v>1538.563702263055</v>
       </c>
       <c r="B207">
-        <v>0.05663741682503209</v>
+        <v>0.05663780770899052</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>2493.017376451912</v>
+        <v>1558.120763339219</v>
       </c>
       <c r="B208">
-        <v>0.04464682851579582</v>
+        <v>0.0446464992019443</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>2529.272198318663</v>
+        <v>1580.781160630403</v>
       </c>
       <c r="B209">
-        <v>0.03075356031030518</v>
+        <v>0.03075239651685369</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>2547.537573083463</v>
+        <v>1592.197590984521</v>
       </c>
       <c r="B210">
-        <v>0.02375405686731902</v>
+        <v>0.02375247265854508</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>2612.024048148813</v>
+        <v>1632.503654278932</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>2643.841509997072</v>
+        <v>1652.390562810121</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>2686.152622386041</v>
+        <v>1678.836331047235</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>2804.523623942556</v>
+        <v>1752.82190827292</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>2807.665696590366</v>
+        <v>1754.785801924882</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>2836.952630131664</v>
+        <v>1773.091051139055</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -2147,31 +2147,31 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>2823.316549523892</v>
+        <v>1764.568074382959</v>
       </c>
       <c r="B217">
-        <v>0.004806594393907404</v>
+        <v>0.004806846636906004</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>2758.386517166319</v>
+        <v>1723.984773911653</v>
       </c>
       <c r="B218">
-        <v>0.02769384026045552</v>
+        <v>0.02769529359242739</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>2805.950799017372</v>
+        <v>1753.713937319932</v>
       </c>
       <c r="B219">
-        <v>0.01092786350572705</v>
+        <v>0.0109284369839181</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>2934.791504024687</v>
+        <v>1834.243406571565</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -2182,207 +2182,207 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>2896.581956266584</v>
+        <v>1810.361244477449</v>
       </c>
       <c r="B221">
-        <v>0.01301951014431624</v>
+        <v>0.01302017061015637</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>2897.517322450104</v>
+        <v>1810.945877589402</v>
       </c>
       <c r="B222">
-        <v>0.01270079374410971</v>
+        <v>0.01270143804180746</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>2896.138220264735</v>
+        <v>1810.083895601449</v>
       </c>
       <c r="B223">
-        <v>0.01317070861999692</v>
+        <v>0.01317137675597424</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B224">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B225">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B226">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B227">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B228">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B229">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B230">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B231">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B232">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B233">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B234">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B235">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B236">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B237">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B238">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B239">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B240">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B241">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B242">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B243">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B244">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>2853.998213206199</v>
+        <v>1783.745073546018</v>
       </c>
       <c r="B245">
-        <v>0.02752948231848495</v>
+        <v>0.02753087885971162</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246">
-        <v>2973.792255751667</v>
+        <v>1858.614879332956</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -2393,15 +2393,15 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>2936.041057340679</v>
+        <v>1835.020843826708</v>
       </c>
       <c r="B247">
-        <v>0.01269463202682453</v>
+        <v>0.01269441871395982</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>2993.085205651698</v>
+        <v>1870.672736146029</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -2412,23 +2412,23 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249">
-        <v>2990.794555656491</v>
+        <v>1869.241108023103</v>
       </c>
       <c r="B249">
-        <v>0.0007653139946977028</v>
+        <v>0.0007653012177186724</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>2978.709590561567</v>
+        <v>1861.688153215226</v>
       </c>
       <c r="B250">
-        <v>0.004802942149119915</v>
+        <v>0.004802861963612792</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>3002.655446968851</v>
+        <v>1876.654019468006</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -2439,146 +2439,146 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252">
-        <v>2958.357865489898</v>
+        <v>1848.96857491928</v>
       </c>
       <c r="B252">
-        <v>0.01475280206514251</v>
+        <v>0.01475255655092689</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>2941.43703316885</v>
+        <v>1838.393262468752</v>
       </c>
       <c r="B253">
-        <v>0.02038809143480003</v>
+        <v>0.02038775213883082</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>2948.9608755334</v>
+        <v>1843.095571570572</v>
       </c>
       <c r="B254">
-        <v>0.01788236192389492</v>
+        <v>0.01788206432795081</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>2905.457337505994</v>
+        <v>1815.906394429978</v>
       </c>
       <c r="B255">
-        <v>0.03237071691358318</v>
+        <v>0.03237017820431731</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>2891.998043097434</v>
+        <v>1807.494500674781</v>
       </c>
       <c r="B256">
-        <v>0.03685318073478083</v>
+        <v>0.03685256742893428</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>2939.62472077447</v>
+        <v>1837.260589473423</v>
       </c>
       <c r="B257">
-        <v>0.02099166131698882</v>
+        <v>0.02099131197648807</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>2931.571566678462</v>
+        <v>1832.227467038211</v>
       </c>
       <c r="B258">
-        <v>0.02367367203657933</v>
+        <v>0.0236732780624046</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>2902.840817175684</v>
+        <v>1814.271101348575</v>
       </c>
       <c r="B259">
-        <v>0.03324211903631136</v>
+        <v>0.03324156582528459</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>2963.916624776898</v>
+        <v>1852.442731224474</v>
       </c>
       <c r="B260">
-        <v>0.01290152096240682</v>
+        <v>0.01290130625697095</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>2946.242406941829</v>
+        <v>1841.396562077578</v>
       </c>
       <c r="B261">
-        <v>0.01878771674717816</v>
+        <v>0.01878740408443658</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B262">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B263">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B264">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B265">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B266">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B267">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B268">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>2909.481473189438</v>
+        <v>1818.421429824709</v>
       </c>
       <c r="B269">
-        <v>0.0310305246222875</v>
+        <v>0.03103000821632762</v>
       </c>
       <c r="C269" s="2">
         <v>18</v>
